--- a/Projects/Demo_3/Wow/FileStorage/Users.xlsx
+++ b/Projects/Demo_3/Wow/FileStorage/Users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yharasym\Documents\Visual Studio 2015\Projects\Calc\Wow\FileStorage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rostyslav.zhalivtsiv\Documents\Git\lv210\Projects\Demo_3\Wow\FileStorage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Firstname</t>
   </si>
@@ -60,20 +60,50 @@
     <t>irawow123</t>
   </si>
   <si>
-    <t>aaaaaa</t>
-  </si>
-  <si>
-    <t>k2854799@mvrht.com</t>
-  </si>
-  <si>
-    <t>qwerty+1</t>
+    <t>Yuriy</t>
+  </si>
+  <si>
+    <t>Boyko</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>stechahudr@housat.com</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>Petter</t>
+  </si>
+  <si>
+    <t>Northug</t>
+  </si>
+  <si>
+    <t>thichapora@housat.com</t>
+  </si>
+  <si>
+    <t>qwerty2</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>koyocore@go2usa.info</t>
+  </si>
+  <si>
+    <t>qwertya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +251,15 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -524,7 +563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -567,8 +606,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,8 +616,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -611,6 +657,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -897,13 +944,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,59 +984,116 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="b">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="b">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="b">
         <v>1</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>